--- a/R Code/data/PT2_shiny_malaysia.xlsx
+++ b/R Code/data/PT2_shiny_malaysia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/018fd3f915004678/Documents/GitHub/ParentText-data-analysis/R Code/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lclem\OneDrive\Documents\GitHub\ParentText-data-analysis\R Code\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="152" documentId="8_{CFD875B0-3DC6-4802-B8E8-0884C9D2F542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43AC741D-3BB0-4AEF-AB31-5AD739647946}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7A59D8-CEE8-475B-A5AD-43FF6308A7A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="914" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="914" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="contents" sheetId="2" r:id="rId1"/>
@@ -610,193 +610,193 @@
     <t>data_manip</t>
   </si>
   <si>
+    <t>text = "Goals interacted with", colour = "blue"</t>
+  </si>
+  <si>
+    <t>text = "Number of Days in Chatbot by Goals Completed", colour = "blue"</t>
+  </si>
+  <si>
+    <t>specify_plot</t>
+  </si>
+  <si>
+    <t>transitions</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>geom_segment(aes(x = name, xend = name_end, y = value, yend = value_end, color = n_transitions), size = 1) + labs(x = "Goal Number", y = "Goal", color = "Proportion of Transitions") + geom_point(aes(x = name_end, y = value_end, size = n_transitions, colour = n_transitions)) + theme_minimal() + ggthemes::scale_colour_gradient_tableau(palette = "Green-Gold")</t>
+  </si>
+  <si>
+    <t>not plotly</t>
+  </si>
+  <si>
+    <t>table_manip</t>
+  </si>
+  <si>
+    <t>text = "Second Goal Selected by Users", colour = "blue"</t>
+  </si>
+  <si>
+    <t>geom_bar(aes(x = value_end, y = n_transitions), stat = "identity") + theme_minimal() + labs(x = "Goal", y = "Frequency")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oesn't work with plotly: geom_label(aes(x = value_end, y = n_transitions, label = paste(n_transitions, " (", sprintf("%.1f%%", percent), ")", sep = "")), size = 3) </t>
+  </si>
+  <si>
+    <t>text = "Proportion of Transitions between Goals (by Time)", colour = "blue"</t>
+  </si>
+  <si>
+    <t>geom_bar(aes(x = ID)) + labs(x = "Goals", y = "Frequency") + theme_classic()</t>
+  </si>
+  <si>
+    <t>%&gt;% group_by(name) %&gt;% count(value, value_end, name = "n_transitions") %&gt;% mutate(n_transitions = ifelse(value == "" &amp; value_end == "", NA, n_transitions)) %&gt;% ungroup() %&gt;% right_join(transitions, by = c("name", "value", "value_end"))%&gt;% dplyr::select(!uuid) %&gt;% unique() %&gt;% group_by(name_end) %&gt;% mutate(sum = sum(n_transitions, na.rm = TRUE), n_transitions = n_transitions/sum * 100)</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>geom_segment(aes(x = time_old, xend = time_new, y = response_old, yend = response_new, color = n_transitions), size = 1) + geom_point(aes(x = time_new, y = response_new, size = n_transitions, colour = n_transitions)) + ggthemes::scale_colour_gradient_tableau(palette = "Green-Gold") + theme_minimal() + labs(x = "Survey Asked", y = "Response", size = "Number of Transitions", colour = "Number of Transitions") + scale_x_discrete(limits = c("Pre", "Post"))</t>
+  </si>
+  <si>
+    <t>td_goal_checkin</t>
+  </si>
+  <si>
+    <t>Goals Check in</t>
+  </si>
+  <si>
+    <t>text = "Gender", colour = "blue"</t>
+  </si>
+  <si>
+    <t>How many days in the last week did you spend at least 5 minutes of one-on-one time with your child? Please type the number of days.</t>
+  </si>
+  <si>
+    <t>How confident are you in your ability to support your child's development?</t>
+  </si>
+  <si>
+    <t>How often do you involve your child in an activity to help them learn? 🎨</t>
+  </si>
+  <si>
+    <t>Are you able to make sure your child follows household rules?</t>
+  </si>
+  <si>
+    <t>On a scale from 0 to 10, where 0 = no problem and 10 = very challenging situation, please type a number that describes the level of challenge for this behaviour.</t>
+  </si>
+  <si>
+    <t>text = "Percentage of modules completed out of modules started", colour = "blue", footnote = "When a goal is selected, a set of modules become available. This is the percentage of completed modules out of those available modules for an individual."</t>
+  </si>
+  <si>
+    <t>labs(x = "Percentage of Modules Completed", y = "Frequency") + theme_minimal()</t>
+  </si>
+  <si>
+    <t>labs(x = "Completed Onboarding", y = "Frequency") + theme_minimal()</t>
+  </si>
+  <si>
+    <t>labs(x = "Type of Media", y = "Frequency") + theme_minimal()</t>
+  </si>
+  <si>
+    <t>labs(x = "Number of Goals Completed", y = "Frequency") + theme_minimal()</t>
+  </si>
+  <si>
+    <t>labs(x = "Number of Modules Completed", y = "Frequency") + theme_minimal()</t>
+  </si>
+  <si>
+    <t>labs(x = "Days in Study", y = "Number of Goals Completed") + theme_minimal()</t>
+  </si>
+  <si>
+    <t>%&gt;% filter(value == "relation") %&gt;% group_by(name) %&gt;% count(value, value_end, name = "n_transitions") %&gt;% mutate(n_transitions = ifelse(value == "" &amp; value_end == "", NA, n_transitions)) %&gt;% filter(!is.na(value)) %&gt;% mutate(total_transitions = sum(n_transitions, na.rm = TRUE), percent = n_transitions / total_transitions * 100)</t>
+  </si>
+  <si>
+    <t>data %&gt;% filter(value == "relation") %&gt;% group_by(name) %&gt;% count(value, value_end, name = "n_transitions") %&gt;% mutate(n_transitions = ifelse(value == "" &amp; value_end == "", NA, n_transitions)) %&gt;% filter(name == 1) %&gt;% filter(!is.na(value)) %&gt;% mutate(total_transitions = sum(n_transitions, na.rm = TRUE), percent = n_transitions / total_transitions * 100) %&gt;% mutate(count = paste0(n_transitions, " (", round(percent, 1), "%)")) %&gt;% ungroup() %&gt;% dplyr::select(value_end, count)</t>
+  </si>
+  <si>
+    <t>goal_transitions_table(data = data, "safety")</t>
+  </si>
+  <si>
+    <t>goal_transitions_table(data = data, "stress")</t>
+  </si>
+  <si>
+    <t>goal_transitions_table(data = data, "relation")</t>
+  </si>
+  <si>
+    <t>goal_transitions_table(data = data, "develop")</t>
+  </si>
+  <si>
+    <t>goal_transitions_table(data = data, "learning")</t>
+  </si>
+  <si>
+    <t>goal_transitions_table(data = data, "structure")</t>
+  </si>
+  <si>
+    <t>goal_transitions_table(data = data, "behave")</t>
+  </si>
+  <si>
+    <t>goal_transitions(data, goal_id = "learning") %&gt;% group_by(time_old, time_new, response_old, response_new) %&gt;% summarise(n_transitions = sum(n), .groups = 'drop')</t>
+  </si>
+  <si>
+    <t>goal_transitions(data, goal_id = "safety") %&gt;% group_by(time_old, time_new, response_old, response_new) %&gt;% summarise(n_transitions = sum(n), .groups = 'drop')</t>
+  </si>
+  <si>
+    <t>goal_transitions(data, goal_id = "stress") %&gt;% group_by(time_old, time_new, response_old, response_new) %&gt;% summarise(n_transitions = sum(n), .groups = 'drop')</t>
+  </si>
+  <si>
+    <t>goal_transitions(data, goal_id = "relation") %&gt;% group_by(time_old, time_new, response_old, response_new) %&gt;% summarise(n_transitions = sum(n), .groups = 'drop')</t>
+  </si>
+  <si>
+    <t>goal_transitions(data, goal_id = "develop") %&gt;% group_by(time_old, time_new, response_old, response_new) %&gt;% summarise(n_transitions = sum(n), .groups = 'drop')</t>
+  </si>
+  <si>
+    <t>goal_transitions(data, goal_id = "structure") %&gt;% group_by(time_old, time_new, response_old, response_new) %&gt;% summarise(n_transitions = sum(n), .groups = 'drop')</t>
+  </si>
+  <si>
+    <t>goal_transitions(data, goal_id = "behave") %&gt;% group_by(time_old, time_new, response_old, response_new) %&gt;% summarise(n_transitions = sum(n), .groups = 'drop')</t>
+  </si>
+  <si>
+    <t>checkin_data</t>
+  </si>
+  <si>
+    <t>text = "Stress", colour = "blue", content_text = "Do you feel overwhelmed by the responsibility of being a parent?", footer = "Negative is `Sometimes`, `Often`,  or `Almost Always`;\n Positive is `Never` or `Rarely`."</t>
+  </si>
+  <si>
+    <t>text = "Relationship", colour = "blue",  content_text = "How many days in the last week did you spend at least 5 minutes of one-on-one time with your child?", footer = "Negative is 0-4 days; \n Positive is 5-7 days."</t>
+  </si>
+  <si>
+    <t>text = "Development", colour = "blue", content_text = "How confident are you in your ability to support your child's development?",  footer = "Negative is `Not Confident` or `Somewhat Confident`; \n Positive is `Confident` or `Very Confident`."</t>
+  </si>
+  <si>
+    <t>text = "Structure", colour = "blue", content_text = "Are you able to make sure your child follows household rules?", footer = "Negative is `Never`, `Rarely`, or `Sometimes`; \n Positive is `Often`, `Almost Always`"</t>
+  </si>
+  <si>
+    <t>text = "Learning", colour = "blue", content_text = "How often do you involve your child in an activity to help them learn?", footer = "Negative is `Never`, `Hardly Ever`, or `Sometimes`; \n Positive is `Most of the Time`, `Everyday`."</t>
+  </si>
+  <si>
+    <t>text = "Behave", colour = "blue", content_text = "On a scale from 0 to 10, where 0 = no problem and 10 = very challenging situation.", footer = "Negative is a score of 6 or more; \n Positive is a score of 0-5."</t>
+  </si>
+  <si>
+    <t>text = "Safety", colour = "blue", content_text = "How confident do you feel about being able to keep your child safe and healthy both online and offline?", footer = "Negative is `Not Confident` or `Somewhat Confident`; \n Positive is `Confident` or `Very Confident`."</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>kemas_group</t>
+  </si>
+  <si>
+    <t>group_by_box</t>
+  </si>
+  <si>
+    <t>label = "WhatsApp Group", value = FALSE</t>
+  </si>
+  <si>
+    <t>%&gt;% dplyr::filter(duplicated_parent_group == 1)</t>
+  </si>
+  <si>
+    <t>label = "Gender", value = FALSE</t>
+  </si>
+  <si>
+    <t>label = "Recruitment Type", choices = c("CSOS", "KEMAS", "None"), selected = c("CSOS", "KEMAS", "None")</t>
+  </si>
+  <si>
     <t>%&gt;% filter(interacted)</t>
-  </si>
-  <si>
-    <t>text = "Goals interacted with", colour = "blue"</t>
-  </si>
-  <si>
-    <t>text = "Number of Days in Chatbot by Goals Completed", colour = "blue"</t>
-  </si>
-  <si>
-    <t>specify_plot</t>
-  </si>
-  <si>
-    <t>transitions</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>geom_segment(aes(x = name, xend = name_end, y = value, yend = value_end, color = n_transitions), size = 1) + labs(x = "Goal Number", y = "Goal", color = "Proportion of Transitions") + geom_point(aes(x = name_end, y = value_end, size = n_transitions, colour = n_transitions)) + theme_minimal() + ggthemes::scale_colour_gradient_tableau(palette = "Green-Gold")</t>
-  </si>
-  <si>
-    <t>not plotly</t>
-  </si>
-  <si>
-    <t>table_manip</t>
-  </si>
-  <si>
-    <t>text = "Second Goal Selected by Users", colour = "blue"</t>
-  </si>
-  <si>
-    <t>geom_bar(aes(x = value_end, y = n_transitions), stat = "identity") + theme_minimal() + labs(x = "Goal", y = "Frequency")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oesn't work with plotly: geom_label(aes(x = value_end, y = n_transitions, label = paste(n_transitions, " (", sprintf("%.1f%%", percent), ")", sep = "")), size = 3) </t>
-  </si>
-  <si>
-    <t>text = "Proportion of Transitions between Goals (by Time)", colour = "blue"</t>
-  </si>
-  <si>
-    <t>geom_bar(aes(x = ID)) + labs(x = "Goals", y = "Frequency") + theme_classic()</t>
-  </si>
-  <si>
-    <t>%&gt;% group_by(name) %&gt;% count(value, value_end, name = "n_transitions") %&gt;% mutate(n_transitions = ifelse(value == "" &amp; value_end == "", NA, n_transitions)) %&gt;% ungroup() %&gt;% right_join(transitions, by = c("name", "value", "value_end"))%&gt;% dplyr::select(!uuid) %&gt;% unique() %&gt;% group_by(name_end) %&gt;% mutate(sum = sum(n_transitions, na.rm = TRUE), n_transitions = n_transitions/sum * 100)</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>geom_segment(aes(x = time_old, xend = time_new, y = response_old, yend = response_new, color = n_transitions), size = 1) + geom_point(aes(x = time_new, y = response_new, size = n_transitions, colour = n_transitions)) + ggthemes::scale_colour_gradient_tableau(palette = "Green-Gold") + theme_minimal() + labs(x = "Survey Asked", y = "Response", size = "Number of Transitions", colour = "Number of Transitions") + scale_x_discrete(limits = c("Pre", "Post"))</t>
-  </si>
-  <si>
-    <t>td_goal_checkin</t>
-  </si>
-  <si>
-    <t>Goals Check in</t>
-  </si>
-  <si>
-    <t>text = "Gender", colour = "blue"</t>
-  </si>
-  <si>
-    <t>How many days in the last week did you spend at least 5 minutes of one-on-one time with your child? Please type the number of days.</t>
-  </si>
-  <si>
-    <t>How confident are you in your ability to support your child's development?</t>
-  </si>
-  <si>
-    <t>How often do you involve your child in an activity to help them learn? 🎨</t>
-  </si>
-  <si>
-    <t>Are you able to make sure your child follows household rules?</t>
-  </si>
-  <si>
-    <t>On a scale from 0 to 10, where 0 = no problem and 10 = very challenging situation, please type a number that describes the level of challenge for this behaviour.</t>
-  </si>
-  <si>
-    <t>text = "Percentage of modules completed out of modules started", colour = "blue", footnote = "When a goal is selected, a set of modules become available. This is the percentage of completed modules out of those available modules for an individual."</t>
-  </si>
-  <si>
-    <t>labs(x = "Percentage of Modules Completed", y = "Frequency") + theme_minimal()</t>
-  </si>
-  <si>
-    <t>labs(x = "Completed Onboarding", y = "Frequency") + theme_minimal()</t>
-  </si>
-  <si>
-    <t>labs(x = "Type of Media", y = "Frequency") + theme_minimal()</t>
-  </si>
-  <si>
-    <t>labs(x = "Number of Goals Completed", y = "Frequency") + theme_minimal()</t>
-  </si>
-  <si>
-    <t>labs(x = "Number of Modules Completed", y = "Frequency") + theme_minimal()</t>
-  </si>
-  <si>
-    <t>labs(x = "Days in Study", y = "Number of Goals Completed") + theme_minimal()</t>
-  </si>
-  <si>
-    <t>%&gt;% filter(value == "relation") %&gt;% group_by(name) %&gt;% count(value, value_end, name = "n_transitions") %&gt;% mutate(n_transitions = ifelse(value == "" &amp; value_end == "", NA, n_transitions)) %&gt;% filter(!is.na(value)) %&gt;% mutate(total_transitions = sum(n_transitions, na.rm = TRUE), percent = n_transitions / total_transitions * 100)</t>
-  </si>
-  <si>
-    <t>data %&gt;% filter(value == "relation") %&gt;% group_by(name) %&gt;% count(value, value_end, name = "n_transitions") %&gt;% mutate(n_transitions = ifelse(value == "" &amp; value_end == "", NA, n_transitions)) %&gt;% filter(name == 1) %&gt;% filter(!is.na(value)) %&gt;% mutate(total_transitions = sum(n_transitions, na.rm = TRUE), percent = n_transitions / total_transitions * 100) %&gt;% mutate(count = paste0(n_transitions, " (", round(percent, 1), "%)")) %&gt;% ungroup() %&gt;% dplyr::select(value_end, count)</t>
-  </si>
-  <si>
-    <t>goal_transitions_table(data = data, "safety")</t>
-  </si>
-  <si>
-    <t>goal_transitions_table(data = data, "stress")</t>
-  </si>
-  <si>
-    <t>goal_transitions_table(data = data, "relation")</t>
-  </si>
-  <si>
-    <t>goal_transitions_table(data = data, "develop")</t>
-  </si>
-  <si>
-    <t>goal_transitions_table(data = data, "learning")</t>
-  </si>
-  <si>
-    <t>goal_transitions_table(data = data, "structure")</t>
-  </si>
-  <si>
-    <t>goal_transitions_table(data = data, "behave")</t>
-  </si>
-  <si>
-    <t>goal_transitions(data, goal_id = "learning") %&gt;% group_by(time_old, time_new, response_old, response_new) %&gt;% summarise(n_transitions = sum(n), .groups = 'drop')</t>
-  </si>
-  <si>
-    <t>goal_transitions(data, goal_id = "safety") %&gt;% group_by(time_old, time_new, response_old, response_new) %&gt;% summarise(n_transitions = sum(n), .groups = 'drop')</t>
-  </si>
-  <si>
-    <t>goal_transitions(data, goal_id = "stress") %&gt;% group_by(time_old, time_new, response_old, response_new) %&gt;% summarise(n_transitions = sum(n), .groups = 'drop')</t>
-  </si>
-  <si>
-    <t>goal_transitions(data, goal_id = "relation") %&gt;% group_by(time_old, time_new, response_old, response_new) %&gt;% summarise(n_transitions = sum(n), .groups = 'drop')</t>
-  </si>
-  <si>
-    <t>goal_transitions(data, goal_id = "develop") %&gt;% group_by(time_old, time_new, response_old, response_new) %&gt;% summarise(n_transitions = sum(n), .groups = 'drop')</t>
-  </si>
-  <si>
-    <t>goal_transitions(data, goal_id = "structure") %&gt;% group_by(time_old, time_new, response_old, response_new) %&gt;% summarise(n_transitions = sum(n), .groups = 'drop')</t>
-  </si>
-  <si>
-    <t>goal_transitions(data, goal_id = "behave") %&gt;% group_by(time_old, time_new, response_old, response_new) %&gt;% summarise(n_transitions = sum(n), .groups = 'drop')</t>
-  </si>
-  <si>
-    <t>checkin_data</t>
-  </si>
-  <si>
-    <t>text = "Stress", colour = "blue", content_text = "Do you feel overwhelmed by the responsibility of being a parent?", footer = "Negative is `Sometimes`, `Often`,  or `Almost Always`;\n Positive is `Never` or `Rarely`."</t>
-  </si>
-  <si>
-    <t>text = "Relationship", colour = "blue",  content_text = "How many days in the last week did you spend at least 5 minutes of one-on-one time with your child?", footer = "Negative is 0-4 days; \n Positive is 5-7 days."</t>
-  </si>
-  <si>
-    <t>text = "Development", colour = "blue", content_text = "How confident are you in your ability to support your child's development?",  footer = "Negative is `Not Confident` or `Somewhat Confident`; \n Positive is `Confident` or `Very Confident`."</t>
-  </si>
-  <si>
-    <t>text = "Structure", colour = "blue", content_text = "Are you able to make sure your child follows household rules?", footer = "Negative is `Never`, `Rarely`, or `Sometimes`; \n Positive is `Often`, `Almost Always`"</t>
-  </si>
-  <si>
-    <t>text = "Learning", colour = "blue", content_text = "How often do you involve your child in an activity to help them learn?", footer = "Negative is `Never`, `Hardly Ever`, or `Sometimes`; \n Positive is `Most of the Time`, `Everyday`."</t>
-  </si>
-  <si>
-    <t>text = "Behave", colour = "blue", content_text = "On a scale from 0 to 10, where 0 = no problem and 10 = very challenging situation.", footer = "Negative is a score of 6 or more; \n Positive is a score of 0-5."</t>
-  </si>
-  <si>
-    <t>text = "Safety", colour = "blue", content_text = "How confident do you feel about being able to keep your child safe and healthy both online and offline?", footer = "Negative is `Not Confident` or `Somewhat Confident`; \n Positive is `Confident` or `Very Confident`."</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>kemas_group</t>
-  </si>
-  <si>
-    <t>group_by_box</t>
-  </si>
-  <si>
-    <t>label = "WhatsApp Group", value = FALSE</t>
-  </si>
-  <si>
-    <t>%&gt;% dplyr::filter(duplicated_parent_group == 1)</t>
-  </si>
-  <si>
-    <t>label = "Gender", value = FALSE</t>
-  </si>
-  <si>
-    <t>label = "Recruitment Type", choices = c("CSOS", "KEMAS", "None"), selected = c("CSOS", "KEMAS", "None")</t>
   </si>
 </sst>
 </file>
@@ -1018,10 +1018,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1390,8 +1386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5268730-55C6-462E-AF7F-6495AFFB8DF1}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView zoomScale="95" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1537,7 +1533,7 @@
         <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D9" t="s">
         <v>182</v>
@@ -1559,27 +1555,27 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B11" t="s">
         <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B12" t="s">
         <v>74</v>
       </c>
       <c r="C12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
@@ -1643,7 +1639,7 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -1663,7 +1659,7 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
@@ -1706,7 +1702,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -1731,8 +1727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C23022D-8B4C-4602-8225-0F1FFA75E164}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1757,7 +1753,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>188</v>
@@ -1781,7 +1777,7 @@
         <v>14</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -1789,16 +1785,16 @@
         <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F2" t="s">
         <v>189</v>
-      </c>
-      <c r="E2" t="s">
-        <v>202</v>
-      </c>
-      <c r="F2" t="s">
-        <v>190</v>
       </c>
       <c r="G2" t="s">
         <v>6</v>
@@ -1818,7 +1814,7 @@
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F3" t="s">
         <v>24</v>
@@ -1841,7 +1837,7 @@
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F4" t="s">
         <v>25</v>
@@ -1864,7 +1860,7 @@
         <v>81</v>
       </c>
       <c r="E5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F5" t="s">
         <v>31</v>
@@ -1887,7 +1883,7 @@
         <v>81</v>
       </c>
       <c r="E6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F6" t="s">
         <v>33</v>
@@ -1910,10 +1906,10 @@
         <v>81</v>
       </c>
       <c r="E7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>32</v>
@@ -1930,54 +1926,54 @@
         <v>72</v>
       </c>
       <c r="B8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I8">
         <v>4</v>
       </c>
       <c r="J8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I9">
         <v>5</v>
       </c>
       <c r="J9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -2034,13 +2030,13 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -3491,7 +3487,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>188</v>
@@ -3523,20 +3519,20 @@
         <v>72</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F2" s="12"/>
       <c r="G2" s="17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="8"/>
@@ -3544,7 +3540,7 @@
         <v>1</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3578,26 +3574,26 @@
         <v>72</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I4" s="8"/>
       <c r="K4">
         <v>2</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3631,26 +3627,26 @@
         <v>72</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I6" s="8"/>
       <c r="K6">
         <v>3</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3684,26 +3680,26 @@
         <v>72</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I8" s="8"/>
       <c r="K8">
         <v>4</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3737,26 +3733,26 @@
         <v>72</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I10" s="8"/>
       <c r="K10">
         <v>5</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="24.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -3767,7 +3763,7 @@
         <v>13</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G11" s="17" t="s">
         <v>179</v>
@@ -3793,29 +3789,29 @@
         <v>72</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I12" s="8"/>
       <c r="K12">
         <v>6</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="24.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -3826,7 +3822,7 @@
         <v>13</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G13" s="17" t="s">
         <v>180</v>
@@ -3852,29 +3848,29 @@
         <v>72</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I14" s="8"/>
       <c r="K14">
         <v>7</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="36" thickBot="1" x14ac:dyDescent="0.4">
@@ -3885,7 +3881,7 @@
         <v>13</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G15" s="17" t="s">
         <v>181</v>
@@ -3954,16 +3950,16 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B2" t="s">
         <v>186</v>
       </c>
       <c r="C2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E2" t="s">
         <v>187</v>
